--- a/team_specific_matrix/Clemson_B.xlsx
+++ b/team_specific_matrix/Clemson_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1761904761904762</v>
+        <v>0.17578125</v>
       </c>
       <c r="C2">
-        <v>0.5857142857142857</v>
+        <v>0.5859375</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009523809523809525</v>
+        <v>0.0078125</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1285714285714286</v>
+        <v>0.1328125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0.09765625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02419354838709677</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02419354838709677</v>
+        <v>0.01986754966887417</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6854838709677419</v>
+        <v>0.7152317880794702</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2661290322580645</v>
+        <v>0.2450331125827815</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7692307692307693</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2307692307692308</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09722222222222222</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006944444444444444</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0625</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2569444444444444</v>
+        <v>0.2616279069767442</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01388888888888889</v>
+        <v>0.03488372093023256</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1736111111111111</v>
+        <v>0.1569767441860465</v>
       </c>
       <c r="R6">
-        <v>0.0625</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="S6">
-        <v>0.3263888888888889</v>
+        <v>0.313953488372093</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1779141104294479</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0245398773006135</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E7">
-        <v>0.006134969325153374</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="F7">
-        <v>0.049079754601227</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1165644171779141</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.006134969325153374</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1349693251533742</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="R7">
-        <v>0.05521472392638037</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="S7">
-        <v>0.4294478527607362</v>
+        <v>0.4139784946236559</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1085271317829457</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01808785529715762</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04909560723514212</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09302325581395349</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0103359173126615</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1912144702842377</v>
+        <v>0.1911111111111111</v>
       </c>
       <c r="R8">
-        <v>0.09302325581395349</v>
+        <v>0.09111111111111111</v>
       </c>
       <c r="S8">
-        <v>0.4366925064599483</v>
+        <v>0.4288888888888889</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0783132530120482</v>
+        <v>0.09223300970873786</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01807228915662651</v>
+        <v>0.01456310679611651</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04819277108433735</v>
+        <v>0.03883495145631068</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1144578313253012</v>
+        <v>0.1019417475728155</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01807228915662651</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.144578313253012</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="R9">
-        <v>0.07228915662650602</v>
+        <v>0.07766990291262135</v>
       </c>
       <c r="S9">
-        <v>0.5060240963855421</v>
+        <v>0.5194174757281553</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09186046511627907</v>
+        <v>0.0947265625</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01511627906976744</v>
+        <v>0.0166015625</v>
       </c>
       <c r="E10">
-        <v>0.001162790697674419</v>
+        <v>0.0009765625</v>
       </c>
       <c r="F10">
-        <v>0.06976744186046512</v>
+        <v>0.068359375</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1151162790697674</v>
+        <v>0.1123046875</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01395348837209302</v>
+        <v>0.017578125</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1906976744186047</v>
+        <v>0.1904296875</v>
       </c>
       <c r="R10">
-        <v>0.1127906976744186</v>
+        <v>0.109375</v>
       </c>
       <c r="S10">
-        <v>0.3895348837209303</v>
+        <v>0.3896484375</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1170212765957447</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09042553191489362</v>
+        <v>0.08636363636363636</v>
       </c>
       <c r="K11">
-        <v>0.1329787234042553</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L11">
-        <v>0.6382978723404256</v>
+        <v>0.6409090909090909</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02127659574468085</v>
+        <v>0.01818181818181818</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8133333333333334</v>
+        <v>0.8034682080924855</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09333333333333334</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06666666666666667</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02666666666666667</v>
+        <v>0.02312138728323699</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6511627906976745</v>
+        <v>0.64</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2325581395348837</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1162790697674419</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007246376811594203</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2536231884057971</v>
+        <v>0.2411764705882353</v>
       </c>
       <c r="I15">
-        <v>0.07246376811594203</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="J15">
-        <v>0.3188405797101449</v>
+        <v>0.3</v>
       </c>
       <c r="K15">
-        <v>0.03623188405797102</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02173913043478261</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05797101449275362</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2318840579710145</v>
+        <v>0.2529411764705882</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01526717557251908</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1526717557251908</v>
+        <v>0.1707317073170732</v>
       </c>
       <c r="I16">
-        <v>0.06870229007633588</v>
+        <v>0.06707317073170732</v>
       </c>
       <c r="J16">
-        <v>0.4274809160305343</v>
+        <v>0.4207317073170732</v>
       </c>
       <c r="K16">
-        <v>0.09923664122137404</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02290076335877863</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04580152671755725</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1679389312977099</v>
+        <v>0.1585365853658537</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01623376623376623</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2142857142857143</v>
+        <v>0.2071823204419889</v>
       </c>
       <c r="I17">
-        <v>0.1233766233766234</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="J17">
-        <v>0.3636363636363636</v>
+        <v>0.3646408839779006</v>
       </c>
       <c r="K17">
-        <v>0.08441558441558442</v>
+        <v>0.08839779005524862</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02922077922077922</v>
+        <v>0.03038674033149171</v>
       </c>
       <c r="N17">
-        <v>0.003246753246753247</v>
+        <v>0.002762430939226519</v>
       </c>
       <c r="O17">
-        <v>0.05519480519480519</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1103896103896104</v>
+        <v>0.1077348066298343</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0245398773006135</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2147239263803681</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="I18">
-        <v>0.09815950920245399</v>
+        <v>0.1047120418848168</v>
       </c>
       <c r="J18">
-        <v>0.4171779141104294</v>
+        <v>0.4083769633507853</v>
       </c>
       <c r="K18">
-        <v>0.049079754601227</v>
+        <v>0.06282722513089005</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01226993865030675</v>
+        <v>0.01047120418848168</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06134969325153374</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1226993865030675</v>
+        <v>0.1256544502617801</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01318458417849899</v>
+        <v>0.01382886776145203</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2261663286004057</v>
+        <v>0.2221261884183232</v>
       </c>
       <c r="I19">
-        <v>0.09127789046653144</v>
+        <v>0.09853068280034573</v>
       </c>
       <c r="J19">
-        <v>0.345841784989858</v>
+        <v>0.3569576490924806</v>
       </c>
       <c r="K19">
-        <v>0.1075050709939148</v>
+        <v>0.1037165082108902</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02535496957403651</v>
+        <v>0.02592912705272256</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05578093306288032</v>
+        <v>0.05358686257562662</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1348884381338742</v>
+        <v>0.125324114088159</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Clemson_B.xlsx
+++ b/team_specific_matrix/Clemson_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17578125</v>
+        <v>0.1715328467153285</v>
       </c>
       <c r="C2">
-        <v>0.5859375</v>
+        <v>0.5912408759124088</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0078125</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1328125</v>
+        <v>0.1277372262773723</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09765625</v>
+        <v>0.1021897810218978</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01986754966887417</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01986754966887417</v>
+        <v>0.01840490797546012</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7152317880794702</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2450331125827815</v>
+        <v>0.2392638036809816</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7666666666666667</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2333333333333333</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09883720930232558</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005813953488372093</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06395348837209303</v>
+        <v>0.05851063829787234</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2616279069767442</v>
+        <v>0.2606382978723404</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03488372093023256</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1569767441860465</v>
+        <v>0.1542553191489362</v>
       </c>
       <c r="R6">
-        <v>0.06395348837209303</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="S6">
-        <v>0.313953488372093</v>
+        <v>0.324468085106383</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1666666666666667</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02150537634408602</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E7">
-        <v>0.005376344086021506</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F7">
-        <v>0.05376344086021505</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1182795698924731</v>
+        <v>0.1310679611650485</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005376344086021506</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1505376344086022</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="R7">
-        <v>0.06451612903225806</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="S7">
-        <v>0.4139784946236559</v>
+        <v>0.4077669902912621</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1133333333333333</v>
+        <v>0.1148225469728601</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01555555555555556</v>
+        <v>0.01461377870563674</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05333333333333334</v>
+        <v>0.05636743215031315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09555555555555556</v>
+        <v>0.09812108559498957</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01111111111111111</v>
+        <v>0.01252609603340292</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1911111111111111</v>
+        <v>0.1920668058455115</v>
       </c>
       <c r="R8">
-        <v>0.09111111111111111</v>
+        <v>0.08768267223382047</v>
       </c>
       <c r="S8">
-        <v>0.4288888888888889</v>
+        <v>0.4237995824634656</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09223300970873786</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01456310679611651</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03883495145631068</v>
+        <v>0.04128440366972477</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1019417475728155</v>
+        <v>0.0963302752293578</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01941747572815534</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1359223300970874</v>
+        <v>0.1513761467889908</v>
       </c>
       <c r="R9">
-        <v>0.07766990291262135</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="S9">
-        <v>0.5194174757281553</v>
+        <v>0.5091743119266054</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0947265625</v>
+        <v>0.09408602150537634</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0166015625</v>
+        <v>0.01792114695340502</v>
       </c>
       <c r="E10">
-        <v>0.0009765625</v>
+        <v>0.0008960573476702509</v>
       </c>
       <c r="F10">
-        <v>0.068359375</v>
+        <v>0.06720430107526881</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1123046875</v>
+        <v>0.1164874551971326</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.017578125</v>
+        <v>0.01702508960573477</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1904296875</v>
+        <v>0.1872759856630824</v>
       </c>
       <c r="R10">
-        <v>0.109375</v>
+        <v>0.1057347670250896</v>
       </c>
       <c r="S10">
-        <v>0.3896484375</v>
+        <v>0.3933691756272402</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="G11">
-        <v>0.1136363636363636</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08636363636363636</v>
+        <v>0.08433734939759036</v>
       </c>
       <c r="K11">
-        <v>0.1409090909090909</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="L11">
-        <v>0.6409090909090909</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01818181818181818</v>
+        <v>0.01606425702811245</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8034682080924855</v>
+        <v>0.8052631578947368</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1098265895953757</v>
+        <v>0.1157894736842105</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.06358381502890173</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02312138728323699</v>
+        <v>0.02105263157894737</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.64</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.24</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.12</v>
+        <v>0.1132075471698113</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01176470588235294</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2411764705882353</v>
+        <v>0.2311827956989247</v>
       </c>
       <c r="I15">
-        <v>0.08235294117647059</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="J15">
-        <v>0.3</v>
+        <v>0.3118279569892473</v>
       </c>
       <c r="K15">
-        <v>0.03529411764705882</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01764705882352941</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05882352941176471</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2529411764705882</v>
+        <v>0.2526881720430108</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01829268292682927</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1707317073170732</v>
+        <v>0.1741573033707865</v>
       </c>
       <c r="I16">
-        <v>0.06707317073170732</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="J16">
-        <v>0.4207317073170732</v>
+        <v>0.4213483146067415</v>
       </c>
       <c r="K16">
-        <v>0.08536585365853659</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01829268292682927</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06097560975609756</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1585365853658537</v>
+        <v>0.151685393258427</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01657458563535912</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2071823204419889</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="I17">
-        <v>0.1270718232044199</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="J17">
-        <v>0.3646408839779006</v>
+        <v>0.3641025641025641</v>
       </c>
       <c r="K17">
-        <v>0.08839779005524862</v>
+        <v>0.08974358974358974</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03038674033149171</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N17">
-        <v>0.002762430939226519</v>
+        <v>0.002564102564102564</v>
       </c>
       <c r="O17">
-        <v>0.05524861878453038</v>
+        <v>0.05641025641025641</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1077348066298343</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02094240837696335</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2146596858638743</v>
+        <v>0.2227722772277228</v>
       </c>
       <c r="I18">
-        <v>0.1047120418848168</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="J18">
-        <v>0.4083769633507853</v>
+        <v>0.405940594059406</v>
       </c>
       <c r="K18">
-        <v>0.06282722513089005</v>
+        <v>0.07425742574257425</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01047120418848168</v>
+        <v>0.009900990099009901</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05235602094240838</v>
+        <v>0.04950495049504951</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1256544502617801</v>
+        <v>0.1188118811881188</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01382886776145203</v>
+        <v>0.01442307692307692</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2221261884183232</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="I19">
-        <v>0.09853068280034573</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="J19">
-        <v>0.3569576490924806</v>
+        <v>0.3573717948717949</v>
       </c>
       <c r="K19">
-        <v>0.1037165082108902</v>
+        <v>0.1057692307692308</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02592912705272256</v>
+        <v>0.02483974358974359</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05358686257562662</v>
+        <v>0.05849358974358974</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.125324114088159</v>
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Clemson_B.xlsx
+++ b/team_specific_matrix/Clemson_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1715328467153285</v>
+        <v>0.1768707482993197</v>
       </c>
       <c r="C2">
-        <v>0.5912408759124088</v>
+        <v>0.5816326530612245</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0072992700729927</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1277372262773723</v>
+        <v>0.1360544217687075</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1021897810218978</v>
+        <v>0.09863945578231292</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01840490797546012</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01840490797546012</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7239263803680982</v>
+        <v>0.7267441860465116</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2392638036809816</v>
+        <v>0.2325581395348837</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7428571428571429</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2571428571428571</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09042553191489362</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005319148936170213</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05851063829787234</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2606382978723404</v>
+        <v>0.2561576354679803</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03191489361702127</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1542553191489362</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="R6">
-        <v>0.07446808510638298</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="S6">
-        <v>0.324468085106383</v>
+        <v>0.3103448275862069</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1650485436893204</v>
+        <v>0.1598173515981735</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02912621359223301</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E7">
-        <v>0.004854368932038835</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="F7">
-        <v>0.05825242718446602</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1310679611650485</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.004854368932038835</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1407766990291262</v>
+        <v>0.1461187214611872</v>
       </c>
       <c r="R7">
-        <v>0.05825242718446602</v>
+        <v>0.0639269406392694</v>
       </c>
       <c r="S7">
-        <v>0.4077669902912621</v>
+        <v>0.4018264840182648</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1148225469728601</v>
+        <v>0.1072124756335283</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01461377870563674</v>
+        <v>0.01364522417153996</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05636743215031315</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09812108559498957</v>
+        <v>0.1130604288499025</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01252609603340292</v>
+        <v>0.01364522417153996</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1920668058455115</v>
+        <v>0.189083820662768</v>
       </c>
       <c r="R8">
-        <v>0.08768267223382047</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="S8">
-        <v>0.4237995824634656</v>
+        <v>0.4113060428849902</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09174311926605505</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01376146788990826</v>
+        <v>0.0128755364806867</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04128440366972477</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0963302752293578</v>
+        <v>0.1030042918454936</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01834862385321101</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1513761467889908</v>
+        <v>0.1630901287553648</v>
       </c>
       <c r="R9">
-        <v>0.07798165137614679</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="S9">
-        <v>0.5091743119266054</v>
+        <v>0.4978540772532189</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09408602150537634</v>
+        <v>0.09390444810543658</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01792114695340502</v>
+        <v>0.01729818780889621</v>
       </c>
       <c r="E10">
-        <v>0.0008960573476702509</v>
+        <v>0.0008237232289950577</v>
       </c>
       <c r="F10">
-        <v>0.06720430107526881</v>
+        <v>0.06836902800658978</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1164874551971326</v>
+        <v>0.1408566721581549</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01702508960573477</v>
+        <v>0.01812191103789127</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1872759856630824</v>
+        <v>0.1836902800658979</v>
       </c>
       <c r="R10">
-        <v>0.1057347670250896</v>
+        <v>0.1046128500823723</v>
       </c>
       <c r="S10">
-        <v>0.3933691756272402</v>
+        <v>0.3723228995057661</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.004016064257028112</v>
+        <v>0.003846153846153846</v>
       </c>
       <c r="G11">
-        <v>0.1124497991967871</v>
+        <v>0.1076923076923077</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08433734939759036</v>
+        <v>0.08076923076923077</v>
       </c>
       <c r="K11">
-        <v>0.144578313253012</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L11">
-        <v>0.6385542168674698</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01606425702811245</v>
+        <v>0.01538461538461539</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8052631578947368</v>
+        <v>0.801980198019802</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1157894736842105</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05789473684210526</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02105263157894737</v>
+        <v>0.0198019801980198</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.660377358490566</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2264150943396226</v>
+        <v>0.2181818181818182</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1132075471698113</v>
+        <v>0.1090909090909091</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01075268817204301</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2311827956989247</v>
+        <v>0.221105527638191</v>
       </c>
       <c r="I15">
-        <v>0.07526881720430108</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="J15">
-        <v>0.3118279569892473</v>
+        <v>0.3165829145728643</v>
       </c>
       <c r="K15">
-        <v>0.04301075268817205</v>
+        <v>0.04020100502512563</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02150537634408602</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="O15">
-        <v>0.05376344086021505</v>
+        <v>0.05025125628140704</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2526881720430108</v>
+        <v>0.2512562814070352</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01685393258426966</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1741573033707865</v>
+        <v>0.1727748691099476</v>
       </c>
       <c r="I16">
-        <v>0.06741573033707865</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J16">
-        <v>0.4213483146067415</v>
+        <v>0.4293193717277487</v>
       </c>
       <c r="K16">
-        <v>0.09550561797752809</v>
+        <v>0.09947643979057591</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01685393258426966</v>
+        <v>0.01570680628272251</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05617977528089887</v>
+        <v>0.05235602094240838</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.151685393258427</v>
+        <v>0.1465968586387434</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01794871794871795</v>
+        <v>0.01891252955082742</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2051282051282051</v>
+        <v>0.2033096926713948</v>
       </c>
       <c r="I17">
-        <v>0.1307692307692308</v>
+        <v>0.132387706855792</v>
       </c>
       <c r="J17">
-        <v>0.3641025641025641</v>
+        <v>0.375886524822695</v>
       </c>
       <c r="K17">
-        <v>0.08974358974358974</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03076923076923077</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="N17">
-        <v>0.002564102564102564</v>
+        <v>0.002364066193853428</v>
       </c>
       <c r="O17">
-        <v>0.05641025641025641</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1025641025641026</v>
+        <v>0.09692671394799054</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0198019801980198</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2227722772277228</v>
+        <v>0.2318181818181818</v>
       </c>
       <c r="I18">
-        <v>0.09900990099009901</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="J18">
-        <v>0.405940594059406</v>
+        <v>0.3954545454545454</v>
       </c>
       <c r="K18">
-        <v>0.07425742574257425</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009900990099009901</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04950495049504951</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1188118811881188</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01442307692307692</v>
+        <v>0.0139426800929512</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.217948717948718</v>
+        <v>0.2215336948102246</v>
       </c>
       <c r="I19">
-        <v>0.09615384615384616</v>
+        <v>0.09450038729666925</v>
       </c>
       <c r="J19">
-        <v>0.3573717948717949</v>
+        <v>0.3570875290472502</v>
       </c>
       <c r="K19">
-        <v>0.1057692307692308</v>
+        <v>0.104570100697134</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02483974358974359</v>
+        <v>0.02478698683191325</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05849358974358974</v>
+        <v>0.05886909372579396</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.125</v>
+        <v>0.1247095274980635</v>
       </c>
     </row>
   </sheetData>
